--- a/data/trans_dic/P2A_psíq_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01208149342113719</v>
+        <v>0.01216720685239558</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02229939612868312</v>
+        <v>0.02231994110804047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01059157676325408</v>
+        <v>0.01004649483249936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0264674425694342</v>
+        <v>0.02574688433530777</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009748266188653367</v>
+        <v>0.009969168441752493</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0203803332640503</v>
+        <v>0.02111721307109386</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01554423448113074</v>
+        <v>0.01550004797371398</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02962886732304837</v>
+        <v>0.03022615441269332</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01273632015774166</v>
+        <v>0.01216235618808205</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02382367988951186</v>
+        <v>0.02402243929388776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01526215707415318</v>
+        <v>0.01555529493144953</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0315416329107781</v>
+        <v>0.03198053669597059</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03045019207452701</v>
+        <v>0.02976038864730753</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04845225040218458</v>
+        <v>0.04764239037344042</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03063224518304408</v>
+        <v>0.02947289752191272</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05581244716476363</v>
+        <v>0.05660901141340884</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02440679499488551</v>
+        <v>0.02452852147857319</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04031567165073885</v>
+        <v>0.03949693006095802</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03467291748174432</v>
+        <v>0.03599032211919432</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0499483092608465</v>
+        <v>0.05068037599706891</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02388059938598072</v>
+        <v>0.02379062159420765</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0393493140053263</v>
+        <v>0.03939157748611422</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02939227245096224</v>
+        <v>0.02932593970660681</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04871654817780301</v>
+        <v>0.04904523112323245</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01436044774334776</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.02941702386379934</v>
+        <v>0.02941702386379933</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.005961908853149043</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00214776473484718</v>
+        <v>0.002231927582898434</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007993054967615813</v>
+        <v>0.008069522959857202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00414713835613883</v>
+        <v>0.004288249158602478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01365384869658315</v>
+        <v>0.0143996879700079</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00362852718276415</v>
+        <v>0.003631709103617626</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01074814329697492</v>
+        <v>0.01056027204828399</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.009537355994193379</v>
+        <v>0.009413347853742544</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02327902186171422</v>
+        <v>0.02270457488107491</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003539989087450382</v>
+        <v>0.003737074052426266</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01034384648267349</v>
+        <v>0.01027604896934848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.007689840299339045</v>
+        <v>0.007755002678336827</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01939595764109692</v>
+        <v>0.02008096751702967</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.009774796906990152</v>
+        <v>0.01001785072716924</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01897949962921251</v>
+        <v>0.01945217248305291</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0130767290177897</v>
+        <v>0.01359837943482553</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02610564646332698</v>
+        <v>0.02699794076521951</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01210532669644704</v>
+        <v>0.01215140736551448</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0223320476397901</v>
+        <v>0.02177003659215629</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02091540630800397</v>
+        <v>0.02062132188825766</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03778191574575474</v>
+        <v>0.03728911613945922</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.009526146103129527</v>
+        <v>0.009166715098561011</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01804177470928831</v>
+        <v>0.01836778424810327</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01490481722221609</v>
+        <v>0.01479723511788607</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02895790747595618</v>
+        <v>0.02938345750116324</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.006377842225744158</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02233948810627186</v>
+        <v>0.02233948810627185</v>
       </c>
     </row>
     <row r="11">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004386078258301915</v>
+        <v>0.004322105234491765</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01208230394697919</v>
+        <v>0.01329341793946185</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006734086173984067</v>
+        <v>0.00662763696240209</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008510663382680772</v>
+        <v>0.006391653838262974</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003584038872930684</v>
+        <v>0.003591002562826393</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01427922250744743</v>
+        <v>0.01400680607355573</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003172134836567893</v>
+        <v>0.003868106840789282</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008242029748453499</v>
+        <v>0.008445574050749999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002750326008812409</v>
+        <v>0.002653637371949054</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01541347804230111</v>
+        <v>0.01517097478176498</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.008315675897405915</v>
+        <v>0.009991391923520823</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03013704078739422</v>
+        <v>0.03192347932252815</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01324673997332955</v>
+        <v>0.01268078266984293</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03882327275127435</v>
+        <v>0.04206547674866404</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0300546276549525</v>
+        <v>0.03102348828705041</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03568296805823087</v>
+        <v>0.03175888204021284</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02003327292043476</v>
+        <v>0.01988344681341985</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0335024508473659</v>
+        <v>0.03330250175333629</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01488663370860074</v>
+        <v>0.01645935021770407</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02659375154539759</v>
+        <v>0.02652341778377936</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01227312146669568</v>
+        <v>0.01282024306129182</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03214311820136634</v>
+        <v>0.03089801286453019</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01290789191330087</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02674384799319591</v>
+        <v>0.02674384799319592</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005705235316426005</v>
+        <v>0.00600103325406212</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01410185948085792</v>
+        <v>0.01425083793690863</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006114082203965591</v>
+        <v>0.006728295721104119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01789464062568164</v>
+        <v>0.017992354625258</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008275318145812454</v>
+        <v>0.00848755459349949</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01582821170643206</v>
+        <v>0.01632686337694794</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01244544789247421</v>
+        <v>0.01233041615841244</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.025859983933939</v>
+        <v>0.02575211081457757</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008233181728571208</v>
+        <v>0.0079664480163226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01668421596783458</v>
+        <v>0.01646438980793664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01024347734017875</v>
+        <v>0.01034609345552488</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02327305246387346</v>
+        <v>0.023425653319029</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0128682468468541</v>
+        <v>0.01311863160486967</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02421562426979921</v>
+        <v>0.02431072834895856</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01374066482730912</v>
+        <v>0.01368389203368559</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02922166701774508</v>
+        <v>0.02909751816672238</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01597138575777369</v>
+        <v>0.01610494862382915</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02578976999154165</v>
+        <v>0.0261663273566746</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02149508771042214</v>
+        <v>0.02170375402411836</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0364121474583629</v>
+        <v>0.03583002706432421</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01332964997505975</v>
+        <v>0.01313559146719461</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02406059962011184</v>
+        <v>0.02362056448668152</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01593442896073287</v>
+        <v>0.0161107125661117</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03074582070382458</v>
+        <v>0.03098584687149999</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12465</v>
+        <v>12553</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>21734</v>
+        <v>21754</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7990</v>
+        <v>7579</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15312</v>
+        <v>14895</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12820</v>
+        <v>13111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>27265</v>
+        <v>28251</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15461</v>
+        <v>15417</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>24356</v>
+        <v>24847</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29890</v>
+        <v>28543</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>55091</v>
+        <v>55550</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>26694</v>
+        <v>27206</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>44176</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31416</v>
+        <v>30704</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>47224</v>
+        <v>46434</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23107</v>
+        <v>22233</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>32289</v>
+        <v>32750</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>32098</v>
+        <v>32258</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53934</v>
+        <v>52839</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34488</v>
+        <v>35798</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>41059</v>
+        <v>41661</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>56044</v>
+        <v>55833</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>90993</v>
+        <v>91091</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51407</v>
+        <v>51291</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>68231</v>
+        <v>68691</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3637</v>
+        <v>3780</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>15698</v>
+        <v>15848</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8611</v>
+        <v>8904</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>30456</v>
+        <v>32119</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5761</v>
+        <v>5766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18893</v>
+        <v>18563</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>18963</v>
+        <v>18717</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>50548</v>
+        <v>49301</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11615</v>
+        <v>12262</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>38497</v>
+        <v>38245</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>31257</v>
+        <v>31522</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>85380</v>
+        <v>88396</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16553</v>
+        <v>16964</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37275</v>
+        <v>38203</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27152</v>
+        <v>28235</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>58230</v>
+        <v>60221</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19219</v>
+        <v>19292</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39255</v>
+        <v>38267</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>41586</v>
+        <v>41001</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>82039</v>
+        <v>80969</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>31256</v>
+        <v>30077</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>67147</v>
+        <v>68360</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>60583</v>
+        <v>60146</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>127472</v>
+        <v>129345</v>
       </c>
     </row>
     <row r="12">
@@ -1826,37 +1826,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2110</v>
+        <v>2080</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8598</v>
+        <v>9459</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3208</v>
+        <v>3157</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3903</v>
+        <v>2931</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10493</v>
+        <v>10293</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3260</v>
+        <v>3976</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7746</v>
+        <v>7937</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3014</v>
+        <v>2908</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>22295</v>
+        <v>21944</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4585</v>
+        <v>5509</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14501</v>
+        <v>15361</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7244</v>
+        <v>6935</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27626</v>
+        <v>29933</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14318</v>
+        <v>14780</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16365</v>
+        <v>14566</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11001</v>
+        <v>10919</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24620</v>
+        <v>24473</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>15301</v>
+        <v>16917</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>24993</v>
+        <v>24927</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13452</v>
+        <v>14051</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>46494</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18693</v>
+        <v>19663</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>48225</v>
+        <v>48735</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20651</v>
+        <v>22726</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>63001</v>
+        <v>63345</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27964</v>
+        <v>28681</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>56257</v>
+        <v>58029</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>43959</v>
+        <v>43552</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>96414</v>
+        <v>96012</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>54798</v>
+        <v>53023</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>116356</v>
+        <v>114823</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>70780</v>
+        <v>71489</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>168706</v>
+        <v>169812</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42163</v>
+        <v>42984</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>82812</v>
+        <v>83137</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>46411</v>
+        <v>46219</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>102880</v>
+        <v>102443</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>53970</v>
+        <v>54422</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>91663</v>
+        <v>93001</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>75923</v>
+        <v>76660</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>135756</v>
+        <v>133585</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>88719</v>
+        <v>87427</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>167799</v>
+        <v>164730</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>110102</v>
+        <v>111320</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>222876</v>
+        <v>224616</v>
       </c>
     </row>
     <row r="20">
